--- a/growth_model_table_output.xlsx
+++ b/growth_model_table_output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukri-my.sharepoint.com/personal/james_currer_iuk_ukri_org/Documents/R/ecom192/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E8EC5E42-2BB0-4E2E-BBC2-E1A3F2803DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{E8EC5E42-2BB0-4E2E-BBC2-E1A3F2803DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D83985-F4D9-481C-B4D2-16FE171F3B92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth Models" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">growth_model_table!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,7 +718,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="James Currer - Innovate UK UKRI" refreshedDate="45463.468833333332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="43">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="James Currer - Innovate UK UKRI" refreshedDate="45463.468833333332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="43" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="growth_model_table"/>
   </cacheSource>
@@ -1208,7 +1221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1644,30 +1657,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1675,7 +1687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>Export-Led</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>Export-Led</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2064,7 +2076,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2072,7 +2084,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>Export-Led</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2119,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -2125,7 +2137,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
   </sheetData>
@@ -2135,22 +2147,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2878,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -3138,7 +3150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3269,15 +3281,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:H43" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Germany"/>
-        <filter val="Ireland"/>
-        <filter val="Netherlands"/>
-        <filter val="Norway"/>
-        <filter val="United Kingdom"/>
-        <filter val="United States"/>
+        <filter val="CME"/>
       </filters>
     </filterColumn>
   </autoFilter>
